--- a/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
+++ b/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Documents\NEAP\Ecosystem-Typology\crosswalks\OceanAccounts-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EC94C0-A587-4858-BDE8-6A55FCB2AE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845D978-2CEF-4B70-A68E-21AAE3350182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="OceanAccountsInfo" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Realm</t>
   </si>
@@ -168,25 +168,16 @@
     <t>semapv:ManualMappingCuration</t>
   </si>
   <si>
-    <t>Reviewer1</t>
-  </si>
-  <si>
-    <t>Reviewer2</t>
-  </si>
-  <si>
     <t>skos:closeMatch</t>
   </si>
   <si>
     <t>skos:exactMatch</t>
   </si>
   <si>
-    <t>https://orcid.org/0009-0001-6090-9959</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-2568-5945</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-4254-8683</t>
+    <t>reviewer_id</t>
+  </si>
+  <si>
+    <t>orcid:0000-0002-2568-5945</t>
   </si>
   <si>
     <t>author_label</t>
@@ -216,9 +207,6 @@
     <t>see email from Toni Cannard for review comments</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>creator_id: https://orcid.org/0000-0002-3884-3420</t>
   </si>
   <si>
@@ -259,6 +247,15 @@
   </si>
   <si>
     <t>ocean: TBA</t>
+  </si>
+  <si>
+    <t>orcid:0009-0001-6090-9959</t>
+  </si>
+  <si>
+    <t>orcid:0000-0003-4254-8683</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -297,12 +294,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -328,9 +323,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -342,13 +336,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,7 +705,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -726,7 +719,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -740,7 +733,7 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -754,7 +747,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -769,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E3A1F-E8D6-4D8F-836E-084FC2E29426}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -780,52 +773,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>25</v>
@@ -891,13 +884,13 @@
         <v>26</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>27</v>
@@ -905,16 +898,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -922,43 +915,43 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>33</v>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4">
         <v>45292</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -966,40 +959,43 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>33</v>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="4">
         <v>45292</v>
       </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
       <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1007,40 +1003,43 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
+      <c r="G4" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4">
         <v>45292</v>
       </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
       <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1048,34 +1047,40 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>33</v>
+      <c r="G5" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4">
         <v>45292</v>
       </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
       <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2:G5" r:id="rId1" display="https://orcid.org/0009-0001-6090-9959" xr:uid="{F1564EBB-DE64-4F09-91EA-7C41E7F5661F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
+++ b/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Documents\NEAP\Ecosystem-Typology\crosswalks\OceanAccounts-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845D978-2CEF-4B70-A68E-21AAE3350182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C4CF12-24D4-440C-803F-F6D5029B1134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="OceanAccountsInfo" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -323,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,9 +348,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2211BA6B-E17A-400C-BE26-193BC633D467}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E3A1F-E8D6-4D8F-836E-084FC2E29426}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +827,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -830,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
@@ -1085,32 +1095,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
-    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
-      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
-      <Description>63P7TJYCZHM3-28990658-16955</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1158,6 +1142,32 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
+    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
+      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
+      <Description>63P7TJYCZHM3-28990658-16955</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1437,28 +1447,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
     <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
+++ b/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Documents\NEAP\Ecosystem-Typology\crosswalks\OceanAccounts-IUCNGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\OceanAccounts-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C4CF12-24D4-440C-803F-F6D5029B1134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE543B0-ECCB-4A40-B877-B3C154C4B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="2340" yWindow="-16095" windowWidth="20745" windowHeight="11265" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="OceanAccountsInfo" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Realm</t>
   </si>
@@ -237,18 +237,12 @@
     <t>ocean:Saltmarsh</t>
   </si>
   <si>
-    <t>cean:Intertidal seagrass</t>
-  </si>
-  <si>
     <t>ocean:Kelp</t>
   </si>
   <si>
     <t>ocean:Mangroves</t>
   </si>
   <si>
-    <t>ocean: TBA</t>
-  </si>
-  <si>
     <t>orcid:0009-0001-6090-9959</t>
   </si>
   <si>
@@ -256,13 +250,64 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sssom: https://w3id.org/sssom/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ocean: https://w3id.org/env/neap/ocean/</t>
+  </si>
+  <si>
+    <t>rdf:subject</t>
+  </si>
+  <si>
+    <t>sssom:subject_label</t>
+  </si>
+  <si>
+    <t>rdf:predicate</t>
+  </si>
+  <si>
+    <t>rdf:object</t>
+  </si>
+  <si>
+    <t>sssom:object_label</t>
+  </si>
+  <si>
+    <t>sssom:mapping_justification</t>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>sssom:creator_label</t>
+  </si>
+  <si>
+    <t>dcterms:created</t>
+  </si>
+  <si>
+    <t>sssom:confidence</t>
+  </si>
+  <si>
+    <t>crosswalk:status</t>
+  </si>
+  <si>
+    <t>rdfs:comment</t>
+  </si>
+  <si>
+    <t>sssom:reviewer_id</t>
+  </si>
+  <si>
+    <t>rdfs:label</t>
+  </si>
+  <si>
+    <t>cean:Intertidal-seagrass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +351,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -334,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -349,6 +413,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E3A1F-E8D6-4D8F-836E-084FC2E29426}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +862,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -816,18 +885,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
+    <row r="8" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -838,10 +912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,115 +936,118 @@
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -979,7 +1056,7 @@
         <v>45292</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -988,33 +1065,37 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="6" t="str">
+        <f>_xlfn.CONCAT(B3, " - mapping to IUCN GET")</f>
+        <v>Saltmarsh - mapping to IUCN GET</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -1023,7 +1104,7 @@
         <v>45292</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
@@ -1032,33 +1113,37 @@
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="6" t="str">
+        <f t="shared" ref="O4:O6" si="0">_xlfn.CONCAT(B4, " - mapping to IUCN GET")</f>
+        <v>Intertidal seagrass - mapping to IUCN GET</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -1067,7 +1152,7 @@
         <v>45292</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -1076,17 +1161,69 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Mangroves - mapping to IUCN GET</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45292</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Kelp - mapping to IUCN GET</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
+++ b/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\OceanAccounts-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE543B0-ECCB-4A40-B877-B3C154C4B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE650AB8-E5EE-4347-9424-B5B6CBCCFE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="-16095" windowWidth="20745" windowHeight="11265" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="9585" yWindow="2910" windowWidth="19425" windowHeight="15345" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="OceanAccountsInfo" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Realm</t>
   </si>
@@ -135,36 +135,6 @@
     <t>M1.2 Kelp forests</t>
   </si>
   <si>
-    <t>subject_id</t>
-  </si>
-  <si>
-    <t>subject_label</t>
-  </si>
-  <si>
-    <t>predicate_id</t>
-  </si>
-  <si>
-    <t>object_id</t>
-  </si>
-  <si>
-    <t>object_label</t>
-  </si>
-  <si>
-    <t>mapping_justification</t>
-  </si>
-  <si>
-    <t>author_id</t>
-  </si>
-  <si>
-    <t>mapping_date</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>semapv:ManualMappingCuration</t>
   </si>
   <si>
@@ -174,21 +144,12 @@
     <t>skos:exactMatch</t>
   </si>
   <si>
-    <t>reviewer_id</t>
-  </si>
-  <si>
     <t>orcid:0000-0002-2568-5945</t>
   </si>
   <si>
-    <t>author_label</t>
-  </si>
-  <si>
     <t>Craig Macfarlane</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>status:reviewed</t>
   </si>
   <si>
@@ -207,33 +168,6 @@
     <t>see email from Toni Cannard for review comments</t>
   </si>
   <si>
-    <t>creator_id: https://orcid.org/0000-0002-3884-3420</t>
-  </si>
-  <si>
-    <t>curie_map:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   get: https://global-ecosystems.org/explore/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   skos: http://www.w3.org/2004/02/skos/core#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   semapv: https://w3id.org/semapv/vocab/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   orcid: https://orcid.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   status: https://w3id.org/sssom/status/</t>
-  </si>
-  <si>
-    <t>license: https://creativecommons.org/publicdomain/zero/1.0/</t>
-  </si>
-  <si>
-    <t>mapping_set_id: http://w3id.org/env/crosswalk/ocean2get/2024-02-06</t>
-  </si>
-  <si>
     <t>ocean:Saltmarsh</t>
   </si>
   <si>
@@ -252,12 +186,6 @@
     <t>high</t>
   </si>
   <si>
-    <t xml:space="preserve">   sssom: https://w3id.org/sssom/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ocean: https://w3id.org/env/neap/ocean/</t>
-  </si>
-  <si>
     <t>rdf:subject</t>
   </si>
   <si>
@@ -301,13 +229,37 @@
   </si>
   <si>
     <t>cean:Intertidal-seagrass</t>
+  </si>
+  <si>
+    <t>orcid: https://orcid.org/</t>
+  </si>
+  <si>
+    <t>sssom: https://w3id.org/sssom/</t>
+  </si>
+  <si>
+    <t>semapv: https://w3id.org/semapv/vocab/</t>
+  </si>
+  <si>
+    <t>crosswalk: https://w3id.org/env/neap/crosswalk/</t>
+  </si>
+  <si>
+    <t>status: https://w3id.org/env/neap/status/</t>
+  </si>
+  <si>
+    <t>get: https://global-ecosystems.org/explore/</t>
+  </si>
+  <si>
+    <t>ocean: https://w3id.org/env/neap/ocean/</t>
+  </si>
+  <si>
+    <t>map: http://w3id.org/env/neap/ocean-get/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +282,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -371,18 +316,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,28 +335,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +720,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -798,7 +734,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -812,7 +748,7 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -826,7 +762,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -839,9 +775,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E3A1F-E8D6-4D8F-836E-084FC2E29426}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -851,58 +787,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>42</v>
+      <c r="A1" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
+      <c r="A2" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
+      <c r="A3" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
+      <c r="A4" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
+      <c r="A5" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
+      <c r="A6" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -912,10 +833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,294 +857,250 @@
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>72</v>
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="str">
+        <f>_xlfn.CONCAT(B2, " - mapping to IUCN GET")</f>
+        <v>Saltmarsh - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4">
-        <v>45292</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="6" t="str">
-        <f>_xlfn.CONCAT(B3, " - mapping to IUCN GET")</f>
-        <v>Saltmarsh - mapping to IUCN GET</v>
+      <c r="O3" s="5" t="str">
+        <f t="shared" ref="O3:O5" si="0">_xlfn.CONCAT(B3, " - mapping to IUCN GET")</f>
+        <v>Intertidal seagrass - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="4">
-        <v>45292</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="6" t="str">
-        <f t="shared" ref="O4:O6" si="0">_xlfn.CONCAT(B4, " - mapping to IUCN GET")</f>
-        <v>Intertidal seagrass - mapping to IUCN GET</v>
+      <c r="O4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Mangroves - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4">
-        <v>45292</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Mangroves - mapping to IUCN GET</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4">
-        <v>45292</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="6" t="str">
+      <c r="O5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Kelp - mapping to IUCN GET</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G8" s="6"/>
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1232,6 +1109,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
+    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
+      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
+      <Description>63P7TJYCZHM3-28990658-16955</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1279,32 +1182,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
-    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
-      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
-      <Description>63P7TJYCZHM3-28990658-16955</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1584,9 +1461,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
+    <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1600,12 +1480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
-    <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
+++ b/crosswalks/OceanAccounts-IUCNGET/OceanAccounts-IUCNGET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\OceanAccounts-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE650AB8-E5EE-4347-9424-B5B6CBCCFE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29560F05-0200-4834-B2FE-995A60DDB71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2910" windowWidth="19425" windowHeight="15345" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="990" yWindow="3480" windowWidth="32475" windowHeight="10815" activeTab="2" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="OceanAccountsInfo" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E3A1F-E8D6-4D8F-836E-084FC2E29426}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,8 +948,8 @@
         <v>28</v>
       </c>
       <c r="O2" s="5" t="str">
-        <f>_xlfn.CONCAT(B2, " - mapping to IUCN GET")</f>
-        <v>Saltmarsh - mapping to IUCN GET</v>
+        <f>_xlfn.CONCAT(B2, " - mapping to IUCN GET - ", ROW(B2)-1 )</f>
+        <v>Saltmarsh - mapping to IUCN GET - 1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -996,8 +996,8 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="str">
-        <f t="shared" ref="O3:O5" si="0">_xlfn.CONCAT(B3, " - mapping to IUCN GET")</f>
-        <v>Intertidal seagrass - mapping to IUCN GET</v>
+        <f t="shared" ref="O3:O5" si="0">_xlfn.CONCAT(B3, " - mapping to IUCN GET - ", ROW(B3)-1 )</f>
+        <v>Intertidal seagrass - mapping to IUCN GET - 2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Mangroves - mapping to IUCN GET</v>
+        <v>Mangroves - mapping to IUCN GET - 3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="O5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Kelp - mapping to IUCN GET</v>
+        <v>Kelp - mapping to IUCN GET - 4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1109,32 +1109,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
-    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
-      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
-      <Description>63P7TJYCZHM3-28990658-16955</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1182,6 +1156,32 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72d9be16-af35-44ba-8991-a3db737bf75a" xsi:nil="true"/>
+    <Notes0 xmlns="9e444dda-df07-4069-8b25-4dfb1c3da75a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">63P7TJYCZHM3-28990658-16955</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72d9be16-af35-44ba-8991-a3db737bf75a">
+      <Url>https://csiroau.sharepoint.com/sites/CSIRO-LEAP/_layouts/15/DocIdRedir.aspx?ID=63P7TJYCZHM3-28990658-16955</Url>
+      <Description>63P7TJYCZHM3-28990658-16955</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1461,28 +1461,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
     <ds:schemaRef ds:uri="72d9be16-af35-44ba-8991-a3db737bf75a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
